--- a/data_voor_swing/aggregatietabellen/kernwinkelgebied_kernwinkelgebied_dummy.xlsx
+++ b/data_voor_swing/aggregatietabellen/kernwinkelgebied_kernwinkelgebied_dummy.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,10 +402,10 @@
     </row>
     <row r="2" spans="1:2" s="0" outlineLevel="0">
       <c r="A2" s="23">
-        <v>10018</v>
+        <v>10171</v>
       </c>
       <c r="B2" s="8">
-        <v>10018.00</v>
+        <v>10171.00</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="0" outlineLevel="0">
@@ -418,10 +418,10 @@
     </row>
     <row r="4" spans="1:2" s="0" outlineLevel="0">
       <c r="A4" s="23">
-        <v>10071</v>
+        <v>10018</v>
       </c>
       <c r="B4" s="8">
-        <v>10071.00</v>
+        <v>10018.00</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="0" outlineLevel="0">
@@ -538,322 +538,322 @@
     </row>
     <row r="19" spans="1:2" s="0" outlineLevel="0">
       <c r="A19" s="23">
-        <v>10072</v>
+        <v>10071</v>
       </c>
       <c r="B19" s="8">
-        <v>10072.00</v>
+        <v>10071.00</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="0" outlineLevel="0">
       <c r="A20" s="23">
-        <v>10073</v>
+        <v>10072</v>
       </c>
       <c r="B20" s="8">
-        <v>10073.00</v>
+        <v>10072.00</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="0" outlineLevel="0">
       <c r="A21" s="23">
-        <v>10074</v>
+        <v>10073</v>
       </c>
       <c r="B21" s="8">
-        <v>10074.00</v>
+        <v>10073.00</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="0" outlineLevel="0">
       <c r="A22" s="23">
-        <v>10075</v>
+        <v>10074</v>
       </c>
       <c r="B22" s="8">
-        <v>10075.00</v>
+        <v>10074.00</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="0" outlineLevel="0">
       <c r="A23" s="23">
-        <v>10124</v>
+        <v>10075</v>
       </c>
       <c r="B23" s="8">
-        <v>10124.00</v>
+        <v>10075.00</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="0" outlineLevel="0">
       <c r="A24" s="23">
-        <v>10165</v>
+        <v>10124</v>
       </c>
       <c r="B24" s="8">
-        <v>10165.00</v>
+        <v>10124.00</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="0" outlineLevel="0">
       <c r="A25" s="23">
-        <v>10083</v>
+        <v>10165</v>
       </c>
       <c r="B25" s="8">
-        <v>10083.00</v>
+        <v>10165.00</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="0" outlineLevel="0">
       <c r="A26" s="23">
-        <v>10084</v>
+        <v>10083</v>
       </c>
       <c r="B26" s="8">
-        <v>10084.00</v>
+        <v>10083.00</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="0" outlineLevel="0">
       <c r="A27" s="23">
-        <v>10085</v>
+        <v>10084</v>
       </c>
       <c r="B27" s="8">
-        <v>10085.00</v>
+        <v>10084.00</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="0" outlineLevel="0">
       <c r="A28" s="23">
-        <v>10123</v>
+        <v>10085</v>
       </c>
       <c r="B28" s="8">
-        <v>10123.00</v>
+        <v>10085.00</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="0" outlineLevel="0">
       <c r="A29" s="23">
-        <v>10162</v>
+        <v>10123</v>
       </c>
       <c r="B29" s="8">
-        <v>10162.00</v>
+        <v>10123.00</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="0" outlineLevel="0">
       <c r="A30" s="23">
-        <v>10166</v>
+        <v>10162</v>
       </c>
       <c r="B30" s="8">
-        <v>10166.00</v>
+        <v>10162.00</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="0" outlineLevel="0">
       <c r="A31" s="23">
-        <v>10052</v>
+        <v>10166</v>
       </c>
       <c r="B31" s="8">
-        <v>10052.00</v>
+        <v>10166.00</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="0" outlineLevel="0">
       <c r="A32" s="23">
-        <v>10016</v>
+        <v>10052</v>
       </c>
       <c r="B32" s="8">
-        <v>10016.00</v>
+        <v>10052.00</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="0" outlineLevel="0">
       <c r="A33" s="23">
-        <v>10092</v>
+        <v>10016</v>
       </c>
       <c r="B33" s="8">
-        <v>10092.00</v>
+        <v>10016.00</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="0" outlineLevel="0">
       <c r="A34" s="23">
-        <v>10130</v>
+        <v>10092</v>
       </c>
       <c r="B34" s="8">
-        <v>10130.00</v>
+        <v>10092.00</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="0" outlineLevel="0">
       <c r="A35" s="23">
-        <v>10131</v>
+        <v>10130</v>
       </c>
       <c r="B35" s="8">
-        <v>10131.00</v>
+        <v>10130.00</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="0" outlineLevel="0">
       <c r="A36" s="23">
-        <v>10132</v>
+        <v>10131</v>
       </c>
       <c r="B36" s="8">
-        <v>10132.00</v>
+        <v>10131.00</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="0" outlineLevel="0">
       <c r="A37" s="23">
-        <v>10079</v>
+        <v>10132</v>
       </c>
       <c r="B37" s="8">
-        <v>10079.00</v>
+        <v>10132.00</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="0" outlineLevel="0">
       <c r="A38" s="23">
-        <v>10096</v>
+        <v>10079</v>
       </c>
       <c r="B38" s="8">
-        <v>10096.00</v>
+        <v>10079.00</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="0" outlineLevel="0">
       <c r="A39" s="23">
-        <v>10097</v>
+        <v>10096</v>
       </c>
       <c r="B39" s="8">
-        <v>10097.00</v>
+        <v>10096.00</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="0" outlineLevel="0">
       <c r="A40" s="23">
-        <v>10098</v>
+        <v>10097</v>
       </c>
       <c r="B40" s="8">
-        <v>10098.00</v>
+        <v>10097.00</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="0" outlineLevel="0">
       <c r="A41" s="23">
-        <v>10099</v>
+        <v>10098</v>
       </c>
       <c r="B41" s="8">
-        <v>10099.00</v>
+        <v>10098.00</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="0" outlineLevel="0">
       <c r="A42" s="23">
-        <v>10100</v>
+        <v>10099</v>
       </c>
       <c r="B42" s="8">
-        <v>10100.00</v>
+        <v>10099.00</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="0" outlineLevel="0">
       <c r="A43" s="23">
-        <v>10101</v>
+        <v>10100</v>
       </c>
       <c r="B43" s="8">
-        <v>10101.00</v>
+        <v>10100.00</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="0" outlineLevel="0">
       <c r="A44" s="23">
-        <v>10102</v>
+        <v>10101</v>
       </c>
       <c r="B44" s="8">
-        <v>10102.00</v>
+        <v>10101.00</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="0" outlineLevel="0">
       <c r="A45" s="23">
-        <v>10080</v>
+        <v>10102</v>
       </c>
       <c r="B45" s="8">
-        <v>10080.00</v>
+        <v>10102.00</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="0" outlineLevel="0">
       <c r="A46" s="23">
-        <v>10077</v>
+        <v>10080</v>
       </c>
       <c r="B46" s="8">
-        <v>10077.00</v>
+        <v>10080.00</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="0" outlineLevel="0">
       <c r="A47" s="23">
-        <v>10081</v>
+        <v>10077</v>
       </c>
       <c r="B47" s="8">
-        <v>10081.00</v>
+        <v>10077.00</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="0" outlineLevel="0">
       <c r="A48" s="23">
-        <v>10049</v>
+        <v>10081</v>
       </c>
       <c r="B48" s="8">
-        <v>10049.00</v>
+        <v>10081.00</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="0" outlineLevel="0">
       <c r="A49" s="23">
-        <v>10106</v>
+        <v>10049</v>
       </c>
       <c r="B49" s="8">
-        <v>10106.00</v>
+        <v>10049.00</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="0" outlineLevel="0">
       <c r="A50" s="23">
-        <v>10082</v>
+        <v>10106</v>
       </c>
       <c r="B50" s="8">
-        <v>10082.00</v>
+        <v>10106.00</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="0" outlineLevel="0">
       <c r="A51" s="23">
-        <v>10089</v>
+        <v>10082</v>
       </c>
       <c r="B51" s="8">
-        <v>10089.00</v>
+        <v>10082.00</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="0" outlineLevel="0">
       <c r="A52" s="23">
-        <v>10103</v>
+        <v>10089</v>
       </c>
       <c r="B52" s="8">
-        <v>10103.00</v>
+        <v>10089.00</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="0" outlineLevel="0">
       <c r="A53" s="23">
-        <v>10148</v>
+        <v>10103</v>
       </c>
       <c r="B53" s="8">
-        <v>10148.00</v>
+        <v>10103.00</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="0" outlineLevel="0">
       <c r="A54" s="23">
-        <v>10094</v>
+        <v>10148</v>
       </c>
       <c r="B54" s="8">
-        <v>10094.00</v>
+        <v>10148.00</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="0" outlineLevel="0">
       <c r="A55" s="23">
-        <v>10158</v>
+        <v>10094</v>
       </c>
       <c r="B55" s="8">
-        <v>10158.00</v>
+        <v>10094.00</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="0" outlineLevel="0">
       <c r="A56" s="23">
-        <v>10155</v>
+        <v>10158</v>
       </c>
       <c r="B56" s="8">
-        <v>10155.00</v>
+        <v>10158.00</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="0" outlineLevel="0">
       <c r="A57" s="23">
-        <v>10001</v>
+        <v>10155</v>
       </c>
       <c r="B57" s="8">
-        <v>10001.00</v>
+        <v>10155.00</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="0" outlineLevel="0">
       <c r="A58" s="23">
-        <v>10045</v>
+        <v>10001</v>
       </c>
       <c r="B58" s="8">
-        <v>10045.00</v>
+        <v>10001.00</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="0" outlineLevel="0">
@@ -866,497 +866,521 @@
     </row>
     <row r="60" spans="1:2" s="0" outlineLevel="0">
       <c r="A60" s="23">
-        <v>10044</v>
+        <v>10042</v>
       </c>
       <c r="B60" s="8">
-        <v>10044.00</v>
+        <v>10042.00</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="0" outlineLevel="0">
       <c r="A61" s="23">
-        <v>10042</v>
+        <v>10043</v>
       </c>
       <c r="B61" s="8">
-        <v>10042.00</v>
+        <v>10043.00</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="0" outlineLevel="0">
       <c r="A62" s="23">
-        <v>10047</v>
+        <v>10044</v>
       </c>
       <c r="B62" s="8">
-        <v>10047.00</v>
+        <v>10044.00</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="0" outlineLevel="0">
       <c r="A63" s="23">
-        <v>10048</v>
+        <v>10045</v>
       </c>
       <c r="B63" s="8">
-        <v>10048.00</v>
+        <v>10045.00</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="0" outlineLevel="0">
       <c r="A64" s="23">
-        <v>10043</v>
+        <v>10046</v>
       </c>
       <c r="B64" s="8">
-        <v>10043.00</v>
+        <v>10046.00</v>
       </c>
     </row>
     <row r="65" spans="1:2" s="0" outlineLevel="0">
       <c r="A65" s="23">
-        <v>10046</v>
+        <v>10047</v>
       </c>
       <c r="B65" s="8">
-        <v>10046.00</v>
+        <v>10047.00</v>
       </c>
     </row>
     <row r="66" spans="1:2" s="0" outlineLevel="0">
       <c r="A66" s="23">
-        <v>10040</v>
+        <v>10048</v>
       </c>
       <c r="B66" s="8">
-        <v>10040.00</v>
+        <v>10048.00</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="0" outlineLevel="0">
       <c r="A67" s="23">
-        <v>10013</v>
+        <v>10040</v>
       </c>
       <c r="B67" s="8">
-        <v>10013.00</v>
+        <v>10040.00</v>
       </c>
     </row>
     <row r="68" spans="1:2" s="0" outlineLevel="0">
       <c r="A68" s="23">
-        <v>10014</v>
+        <v>10013</v>
       </c>
       <c r="B68" s="8">
-        <v>10014.00</v>
+        <v>10013.00</v>
       </c>
     </row>
     <row r="69" spans="1:2" s="0" outlineLevel="0">
       <c r="A69" s="23">
-        <v>10051</v>
+        <v>10014</v>
       </c>
       <c r="B69" s="8">
-        <v>10051.00</v>
+        <v>10014.00</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="0" outlineLevel="0">
       <c r="A70" s="23">
-        <v>10125</v>
+        <v>10051</v>
       </c>
       <c r="B70" s="8">
-        <v>10125.00</v>
+        <v>10051.00</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="0" outlineLevel="0">
       <c r="A71" s="23">
-        <v>10113</v>
+        <v>10125</v>
       </c>
       <c r="B71" s="8">
-        <v>10113.00</v>
+        <v>10125.00</v>
       </c>
     </row>
     <row r="72" spans="1:2" s="0" outlineLevel="0">
       <c r="A72" s="23">
-        <v>10004</v>
+        <v>10113</v>
       </c>
       <c r="B72" s="8">
-        <v>10004.00</v>
+        <v>10113.00</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="0" outlineLevel="0">
       <c r="A73" s="23">
-        <v>10168</v>
+        <v>10004</v>
       </c>
       <c r="B73" s="8">
-        <v>10168.00</v>
+        <v>10004.00</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="0" outlineLevel="0">
       <c r="A74" s="23">
-        <v>10169</v>
+        <v>10168</v>
       </c>
       <c r="B74" s="8">
-        <v>10169.00</v>
+        <v>10168.00</v>
       </c>
     </row>
     <row r="75" spans="1:2" s="0" outlineLevel="0">
       <c r="A75" s="23">
-        <v>10170</v>
+        <v>10169</v>
       </c>
       <c r="B75" s="8">
-        <v>10170.00</v>
+        <v>10169.00</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="0" outlineLevel="0">
       <c r="A76" s="23">
-        <v>10055</v>
+        <v>10170</v>
       </c>
       <c r="B76" s="8">
-        <v>10055.00</v>
+        <v>10170.00</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="0" outlineLevel="0">
       <c r="A77" s="23">
-        <v>10093</v>
+        <v>10055</v>
       </c>
       <c r="B77" s="8">
-        <v>10093.00</v>
+        <v>10055.00</v>
       </c>
     </row>
     <row r="78" spans="1:2" s="0" outlineLevel="0">
       <c r="A78" s="23">
-        <v>10076</v>
+        <v>10093</v>
       </c>
       <c r="B78" s="8">
-        <v>10076.00</v>
+        <v>10093.00</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="0" outlineLevel="0">
       <c r="A79" s="23">
-        <v>10112</v>
+        <v>10076</v>
       </c>
       <c r="B79" s="8">
-        <v>10112.00</v>
+        <v>10076.00</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="0" outlineLevel="0">
       <c r="A80" s="23">
-        <v>10090</v>
+        <v>10112</v>
       </c>
       <c r="B80" s="8">
-        <v>10090.00</v>
+        <v>10112.00</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="0" outlineLevel="0">
       <c r="A81" s="23">
-        <v>10114</v>
+        <v>10090</v>
       </c>
       <c r="B81" s="8">
-        <v>10114.00</v>
+        <v>10090.00</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="0" outlineLevel="0">
       <c r="A82" s="23">
-        <v>10115</v>
+        <v>10114</v>
       </c>
       <c r="B82" s="8">
-        <v>10115.00</v>
+        <v>10114.00</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="0" outlineLevel="0">
       <c r="A83" s="23">
-        <v>10163</v>
+        <v>10115</v>
       </c>
       <c r="B83" s="8">
-        <v>10163.00</v>
+        <v>10115.00</v>
       </c>
     </row>
     <row r="84" spans="1:2" s="0" outlineLevel="0">
       <c r="A84" s="23">
-        <v>10164</v>
+        <v>10163</v>
       </c>
       <c r="B84" s="8">
-        <v>10164.00</v>
+        <v>10163.00</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="0" outlineLevel="0">
       <c r="A85" s="23">
-        <v>10167</v>
+        <v>10164</v>
       </c>
       <c r="B85" s="8">
-        <v>10167.00</v>
+        <v>10164.00</v>
       </c>
     </row>
     <row r="86" spans="1:2" s="0" outlineLevel="0">
       <c r="A86" s="23">
-        <v>10104</v>
+        <v>10167</v>
       </c>
       <c r="B86" s="8">
-        <v>10104.00</v>
+        <v>10167.00</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="0" outlineLevel="0">
       <c r="A87" s="23">
-        <v>10108</v>
+        <v>10104</v>
       </c>
       <c r="B87" s="8">
-        <v>10108.00</v>
+        <v>10104.00</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="0" outlineLevel="0">
       <c r="A88" s="23">
-        <v>10160</v>
+        <v>10108</v>
       </c>
       <c r="B88" s="8">
-        <v>10160.00</v>
+        <v>10108.00</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="0" outlineLevel="0">
       <c r="A89" s="23">
-        <v>10161</v>
+        <v>10160</v>
       </c>
       <c r="B89" s="8">
-        <v>10161.00</v>
+        <v>10160.00</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="0" outlineLevel="0">
       <c r="A90" s="23">
-        <v>10050</v>
+        <v>10161</v>
       </c>
       <c r="B90" s="8">
-        <v>10050.00</v>
+        <v>10161.00</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="0" outlineLevel="0">
       <c r="A91" s="23">
-        <v>10086</v>
+        <v>10050</v>
       </c>
       <c r="B91" s="8">
-        <v>10086.00</v>
+        <v>10050.00</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="0" outlineLevel="0">
       <c r="A92" s="23">
-        <v>10087</v>
+        <v>10086</v>
       </c>
       <c r="B92" s="8">
-        <v>10087.00</v>
+        <v>10086.00</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="0" outlineLevel="0">
       <c r="A93" s="23">
-        <v>10088</v>
+        <v>10087</v>
       </c>
       <c r="B93" s="8">
-        <v>10088.00</v>
+        <v>10087.00</v>
       </c>
     </row>
     <row r="94" spans="1:2" s="0" outlineLevel="0">
       <c r="A94" s="23">
-        <v>10127</v>
+        <v>10088</v>
       </c>
       <c r="B94" s="8">
-        <v>10127.00</v>
+        <v>10088.00</v>
       </c>
     </row>
     <row r="95" spans="1:2" s="0" outlineLevel="0">
       <c r="A95" s="23">
-        <v>10128</v>
+        <v>10172</v>
       </c>
       <c r="B95" s="8">
-        <v>10128.00</v>
+        <v>10172.00</v>
       </c>
     </row>
     <row r="96" spans="1:2" s="0" outlineLevel="0">
       <c r="A96" s="23">
-        <v>10129</v>
+        <v>10173</v>
       </c>
       <c r="B96" s="8">
-        <v>10129.00</v>
+        <v>10173.00</v>
       </c>
     </row>
     <row r="97" spans="1:2" s="0" outlineLevel="0">
       <c r="A97" s="23">
-        <v>10116</v>
+        <v>10127</v>
       </c>
       <c r="B97" s="8">
-        <v>10116.00</v>
+        <v>10127.00</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="0" outlineLevel="0">
       <c r="A98" s="23">
-        <v>10117</v>
+        <v>10128</v>
       </c>
       <c r="B98" s="8">
-        <v>10117.00</v>
+        <v>10128.00</v>
       </c>
     </row>
     <row r="99" spans="1:2" s="0" outlineLevel="0">
       <c r="A99" s="23">
-        <v>10118</v>
+        <v>10129</v>
       </c>
       <c r="B99" s="8">
-        <v>10118.00</v>
+        <v>10129.00</v>
       </c>
     </row>
     <row r="100" spans="1:2" s="0" outlineLevel="0">
       <c r="A100" s="23">
-        <v>10119</v>
+        <v>10116</v>
       </c>
       <c r="B100" s="8">
-        <v>10119.00</v>
+        <v>10116.00</v>
       </c>
     </row>
     <row r="101" spans="1:2" s="0" outlineLevel="0">
       <c r="A101" s="23">
-        <v>10091</v>
+        <v>10117</v>
       </c>
       <c r="B101" s="8">
-        <v>10091.00</v>
+        <v>10117.00</v>
       </c>
     </row>
     <row r="102" spans="1:2" s="0" outlineLevel="0">
       <c r="A102" s="23">
-        <v>10126</v>
+        <v>10118</v>
       </c>
       <c r="B102" s="8">
-        <v>10126.00</v>
+        <v>10118.00</v>
       </c>
     </row>
     <row r="103" spans="1:2" s="0" outlineLevel="0">
       <c r="A103" s="23">
-        <v>10111</v>
+        <v>10119</v>
       </c>
       <c r="B103" s="8">
-        <v>10111.00</v>
+        <v>10119.00</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="0" outlineLevel="0">
       <c r="A104" s="23">
-        <v>10005</v>
+        <v>10091</v>
       </c>
       <c r="B104" s="8">
-        <v>10005.00</v>
+        <v>10091.00</v>
       </c>
     </row>
     <row r="105" spans="1:2" s="0" outlineLevel="0">
       <c r="A105" s="23">
-        <v>10003</v>
+        <v>10126</v>
       </c>
       <c r="B105" s="8">
-        <v>10003.00</v>
+        <v>10126.00</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="0" outlineLevel="0">
       <c r="A106" s="23">
-        <v>10095</v>
+        <v>10111</v>
       </c>
       <c r="B106" s="8">
-        <v>10095.00</v>
+        <v>10111.00</v>
       </c>
     </row>
     <row r="107" spans="1:2" s="0" outlineLevel="0">
       <c r="A107" s="23">
-        <v>10078</v>
+        <v>10005</v>
       </c>
       <c r="B107" s="8">
-        <v>10078.00</v>
+        <v>10005.00</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="0" outlineLevel="0">
       <c r="A108" s="23">
-        <v>10015</v>
+        <v>10003</v>
       </c>
       <c r="B108" s="8">
-        <v>10015.00</v>
+        <v>10003.00</v>
       </c>
     </row>
     <row r="109" spans="1:2" s="0" outlineLevel="0">
       <c r="A109" s="23">
-        <v>10159</v>
+        <v>10095</v>
       </c>
       <c r="B109" s="8">
-        <v>10159.00</v>
+        <v>10095.00</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="0" outlineLevel="0">
       <c r="A110" s="23">
-        <v>10121</v>
+        <v>10078</v>
       </c>
       <c r="B110" s="8">
-        <v>10121.00</v>
+        <v>10078.00</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="0" outlineLevel="0">
       <c r="A111" s="23">
-        <v>10122</v>
+        <v>10015</v>
       </c>
       <c r="B111" s="8">
-        <v>10122.00</v>
+        <v>10015.00</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="0" outlineLevel="0">
       <c r="A112" s="23">
-        <v>10105</v>
+        <v>10159</v>
       </c>
       <c r="B112" s="8">
-        <v>10105.00</v>
+        <v>10159.00</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="0" outlineLevel="0">
       <c r="A113" s="23">
-        <v>10053</v>
+        <v>10121</v>
       </c>
       <c r="B113" s="8">
-        <v>10053.00</v>
+        <v>10121.00</v>
       </c>
     </row>
     <row r="114" spans="1:2" s="0" outlineLevel="0">
       <c r="A114" s="23">
-        <v>10054</v>
+        <v>10122</v>
       </c>
       <c r="B114" s="8">
-        <v>10054.00</v>
+        <v>10122.00</v>
       </c>
     </row>
     <row r="115" spans="1:2" s="0" outlineLevel="0">
       <c r="A115" s="23">
-        <v>10020</v>
+        <v>10105</v>
       </c>
       <c r="B115" s="8">
-        <v>10020.00</v>
+        <v>10105.00</v>
       </c>
     </row>
     <row r="116" spans="1:2" s="0" outlineLevel="0">
       <c r="A116" s="23">
-        <v>10021</v>
+        <v>10053</v>
       </c>
       <c r="B116" s="8">
-        <v>10021.00</v>
+        <v>10053.00</v>
       </c>
     </row>
     <row r="117" spans="1:2" s="0" outlineLevel="0">
       <c r="A117" s="23">
-        <v>10023</v>
+        <v>10054</v>
       </c>
       <c r="B117" s="8">
-        <v>10023.00</v>
+        <v>10054.00</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="0" outlineLevel="0">
       <c r="A118" s="23">
-        <v>10024</v>
+        <v>10019</v>
       </c>
       <c r="B118" s="8">
-        <v>10024.00</v>
+        <v>10019.00</v>
       </c>
     </row>
     <row r="119" spans="1:2" s="0" outlineLevel="0">
       <c r="A119" s="23">
-        <v>10019</v>
+        <v>10020</v>
       </c>
       <c r="B119" s="8">
-        <v>10019.00</v>
+        <v>10020.00</v>
       </c>
     </row>
     <row r="120" spans="1:2" s="0" outlineLevel="0">
       <c r="A120" s="23">
-        <v>10107</v>
+        <v>10021</v>
       </c>
       <c r="B120" s="8">
-        <v>10107.00</v>
+        <v>10021.00</v>
       </c>
     </row>
     <row r="121" spans="1:2" s="0" outlineLevel="0">
       <c r="A121" s="23">
+        <v>10023</v>
+      </c>
+      <c r="B121" s="8">
+        <v>10023.00</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" s="0" outlineLevel="0">
+      <c r="A122" s="23">
+        <v>10024</v>
+      </c>
+      <c r="B122" s="8">
+        <v>10024.00</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="0" outlineLevel="0">
+      <c r="A123" s="23">
+        <v>10107</v>
+      </c>
+      <c r="B123" s="8">
+        <v>10107.00</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" s="0" outlineLevel="0">
+      <c r="A124" s="23">
         <v>10110</v>
       </c>
-      <c r="B121" s="8">
+      <c r="B124" s="8">
         <v>10110.00</v>
       </c>
     </row>

--- a/data_voor_swing/aggregatietabellen/kernwinkelgebied_kernwinkelgebied_dummy.xlsx
+++ b/data_voor_swing/aggregatietabellen/kernwinkelgebied_kernwinkelgebied_dummy.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +405,7 @@
         <v>10171</v>
       </c>
       <c r="B2" s="8">
-        <v>10171.00</v>
+        <v>10171</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="0" outlineLevel="0">
@@ -413,7 +413,7 @@
         <v>10017</v>
       </c>
       <c r="B3" s="8">
-        <v>10017.00</v>
+        <v>10017</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="0" outlineLevel="0">
@@ -421,7 +421,7 @@
         <v>10018</v>
       </c>
       <c r="B4" s="8">
-        <v>10018.00</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="0" outlineLevel="0">
@@ -429,7 +429,7 @@
         <v>10057</v>
       </c>
       <c r="B5" s="8">
-        <v>10057.00</v>
+        <v>10057</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="0" outlineLevel="0">
@@ -437,7 +437,7 @@
         <v>10058</v>
       </c>
       <c r="B6" s="8">
-        <v>10058.00</v>
+        <v>10058</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="0" outlineLevel="0">
@@ -445,7 +445,7 @@
         <v>10059</v>
       </c>
       <c r="B7" s="8">
-        <v>10059.00</v>
+        <v>10059</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="0" outlineLevel="0">
@@ -453,7 +453,7 @@
         <v>10060</v>
       </c>
       <c r="B8" s="8">
-        <v>10060.00</v>
+        <v>10060</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="0" outlineLevel="0">
@@ -461,7 +461,7 @@
         <v>10061</v>
       </c>
       <c r="B9" s="8">
-        <v>10061.00</v>
+        <v>10061</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="0" outlineLevel="0">
@@ -469,7 +469,7 @@
         <v>10062</v>
       </c>
       <c r="B10" s="8">
-        <v>10062.00</v>
+        <v>10062</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="0" outlineLevel="0">
@@ -477,7 +477,7 @@
         <v>10063</v>
       </c>
       <c r="B11" s="8">
-        <v>10063.00</v>
+        <v>10063</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="0" outlineLevel="0">
@@ -485,7 +485,7 @@
         <v>10064</v>
       </c>
       <c r="B12" s="8">
-        <v>10064.00</v>
+        <v>10064</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="0" outlineLevel="0">
@@ -493,7 +493,7 @@
         <v>10065</v>
       </c>
       <c r="B13" s="8">
-        <v>10065.00</v>
+        <v>10065</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="0" outlineLevel="0">
@@ -501,7 +501,7 @@
         <v>10066</v>
       </c>
       <c r="B14" s="8">
-        <v>10066.00</v>
+        <v>10066</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="0" outlineLevel="0">
@@ -509,7 +509,7 @@
         <v>10067</v>
       </c>
       <c r="B15" s="8">
-        <v>10067.00</v>
+        <v>10067</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="0" outlineLevel="0">
@@ -517,7 +517,7 @@
         <v>10068</v>
       </c>
       <c r="B16" s="8">
-        <v>10068.00</v>
+        <v>10068</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="0" outlineLevel="0">
@@ -525,7 +525,7 @@
         <v>10069</v>
       </c>
       <c r="B17" s="8">
-        <v>10069.00</v>
+        <v>10069</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="0" outlineLevel="0">
@@ -533,7 +533,7 @@
         <v>10070</v>
       </c>
       <c r="B18" s="8">
-        <v>10070.00</v>
+        <v>10070</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="0" outlineLevel="0">
@@ -541,7 +541,7 @@
         <v>10071</v>
       </c>
       <c r="B19" s="8">
-        <v>10071.00</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="0" outlineLevel="0">
@@ -549,7 +549,7 @@
         <v>10072</v>
       </c>
       <c r="B20" s="8">
-        <v>10072.00</v>
+        <v>10072</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="0" outlineLevel="0">
@@ -557,7 +557,7 @@
         <v>10073</v>
       </c>
       <c r="B21" s="8">
-        <v>10073.00</v>
+        <v>10073</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="0" outlineLevel="0">
@@ -565,7 +565,7 @@
         <v>10074</v>
       </c>
       <c r="B22" s="8">
-        <v>10074.00</v>
+        <v>10074</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="0" outlineLevel="0">
@@ -573,7 +573,7 @@
         <v>10075</v>
       </c>
       <c r="B23" s="8">
-        <v>10075.00</v>
+        <v>10075</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="0" outlineLevel="0">
@@ -581,7 +581,7 @@
         <v>10124</v>
       </c>
       <c r="B24" s="8">
-        <v>10124.00</v>
+        <v>10124</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="0" outlineLevel="0">
@@ -589,799 +589,839 @@
         <v>10165</v>
       </c>
       <c r="B25" s="8">
-        <v>10165.00</v>
+        <v>10165</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="0" outlineLevel="0">
       <c r="A26" s="23">
-        <v>10083</v>
+        <v>10174</v>
       </c>
       <c r="B26" s="8">
-        <v>10083.00</v>
+        <v>10174</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="0" outlineLevel="0">
       <c r="A27" s="23">
-        <v>10084</v>
+        <v>10175</v>
       </c>
       <c r="B27" s="8">
-        <v>10084.00</v>
+        <v>10175</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="0" outlineLevel="0">
       <c r="A28" s="23">
-        <v>10085</v>
+        <v>10176</v>
       </c>
       <c r="B28" s="8">
-        <v>10085.00</v>
+        <v>10176</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="0" outlineLevel="0">
       <c r="A29" s="23">
-        <v>10123</v>
+        <v>10177</v>
       </c>
       <c r="B29" s="8">
-        <v>10123.00</v>
+        <v>10177</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="0" outlineLevel="0">
       <c r="A30" s="23">
-        <v>10162</v>
+        <v>10083</v>
       </c>
       <c r="B30" s="8">
-        <v>10162.00</v>
+        <v>10083</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="0" outlineLevel="0">
       <c r="A31" s="23">
-        <v>10166</v>
+        <v>10084</v>
       </c>
       <c r="B31" s="8">
-        <v>10166.00</v>
+        <v>10084</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="0" outlineLevel="0">
       <c r="A32" s="23">
-        <v>10052</v>
+        <v>10085</v>
       </c>
       <c r="B32" s="8">
-        <v>10052.00</v>
+        <v>10085</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="0" outlineLevel="0">
       <c r="A33" s="23">
-        <v>10016</v>
+        <v>10123</v>
       </c>
       <c r="B33" s="8">
-        <v>10016.00</v>
+        <v>10123</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="0" outlineLevel="0">
       <c r="A34" s="23">
-        <v>10092</v>
+        <v>10162</v>
       </c>
       <c r="B34" s="8">
-        <v>10092.00</v>
+        <v>10162</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="0" outlineLevel="0">
       <c r="A35" s="23">
-        <v>10130</v>
+        <v>10166</v>
       </c>
       <c r="B35" s="8">
-        <v>10130.00</v>
+        <v>10166</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="0" outlineLevel="0">
       <c r="A36" s="23">
-        <v>10131</v>
+        <v>10052</v>
       </c>
       <c r="B36" s="8">
-        <v>10131.00</v>
+        <v>10052</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="0" outlineLevel="0">
       <c r="A37" s="23">
-        <v>10132</v>
+        <v>10016</v>
       </c>
       <c r="B37" s="8">
-        <v>10132.00</v>
+        <v>10016</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="0" outlineLevel="0">
       <c r="A38" s="23">
-        <v>10079</v>
+        <v>10092</v>
       </c>
       <c r="B38" s="8">
-        <v>10079.00</v>
+        <v>10092</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="0" outlineLevel="0">
       <c r="A39" s="23">
-        <v>10096</v>
+        <v>10130</v>
       </c>
       <c r="B39" s="8">
-        <v>10096.00</v>
+        <v>10130</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="0" outlineLevel="0">
       <c r="A40" s="23">
-        <v>10097</v>
+        <v>10131</v>
       </c>
       <c r="B40" s="8">
-        <v>10097.00</v>
+        <v>10131</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="0" outlineLevel="0">
       <c r="A41" s="23">
-        <v>10098</v>
+        <v>10132</v>
       </c>
       <c r="B41" s="8">
-        <v>10098.00</v>
+        <v>10132</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="0" outlineLevel="0">
       <c r="A42" s="23">
-        <v>10099</v>
+        <v>10079</v>
       </c>
       <c r="B42" s="8">
-        <v>10099.00</v>
+        <v>10079</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="0" outlineLevel="0">
       <c r="A43" s="23">
-        <v>10100</v>
+        <v>10096</v>
       </c>
       <c r="B43" s="8">
-        <v>10100.00</v>
+        <v>10096</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="0" outlineLevel="0">
       <c r="A44" s="23">
-        <v>10101</v>
+        <v>10097</v>
       </c>
       <c r="B44" s="8">
-        <v>10101.00</v>
+        <v>10097</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="0" outlineLevel="0">
       <c r="A45" s="23">
-        <v>10102</v>
+        <v>10098</v>
       </c>
       <c r="B45" s="8">
-        <v>10102.00</v>
+        <v>10098</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="0" outlineLevel="0">
       <c r="A46" s="23">
-        <v>10080</v>
+        <v>10099</v>
       </c>
       <c r="B46" s="8">
-        <v>10080.00</v>
+        <v>10099</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="0" outlineLevel="0">
       <c r="A47" s="23">
-        <v>10077</v>
+        <v>10100</v>
       </c>
       <c r="B47" s="8">
-        <v>10077.00</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="0" outlineLevel="0">
       <c r="A48" s="23">
-        <v>10081</v>
+        <v>10101</v>
       </c>
       <c r="B48" s="8">
-        <v>10081.00</v>
+        <v>10101</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="0" outlineLevel="0">
       <c r="A49" s="23">
-        <v>10049</v>
+        <v>10102</v>
       </c>
       <c r="B49" s="8">
-        <v>10049.00</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="0" outlineLevel="0">
       <c r="A50" s="23">
-        <v>10106</v>
+        <v>10080</v>
       </c>
       <c r="B50" s="8">
-        <v>10106.00</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="0" outlineLevel="0">
       <c r="A51" s="23">
-        <v>10082</v>
+        <v>10077</v>
       </c>
       <c r="B51" s="8">
-        <v>10082.00</v>
+        <v>10077</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="0" outlineLevel="0">
       <c r="A52" s="23">
-        <v>10089</v>
+        <v>10081</v>
       </c>
       <c r="B52" s="8">
-        <v>10089.00</v>
+        <v>10081</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="0" outlineLevel="0">
       <c r="A53" s="23">
-        <v>10103</v>
+        <v>10049</v>
       </c>
       <c r="B53" s="8">
-        <v>10103.00</v>
+        <v>10049</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="0" outlineLevel="0">
       <c r="A54" s="23">
-        <v>10148</v>
+        <v>10106</v>
       </c>
       <c r="B54" s="8">
-        <v>10148.00</v>
+        <v>10106</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="0" outlineLevel="0">
       <c r="A55" s="23">
-        <v>10094</v>
+        <v>10082</v>
       </c>
       <c r="B55" s="8">
-        <v>10094.00</v>
+        <v>10082</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="0" outlineLevel="0">
       <c r="A56" s="23">
-        <v>10158</v>
+        <v>10089</v>
       </c>
       <c r="B56" s="8">
-        <v>10158.00</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="0" outlineLevel="0">
       <c r="A57" s="23">
-        <v>10155</v>
+        <v>10103</v>
       </c>
       <c r="B57" s="8">
-        <v>10155.00</v>
+        <v>10103</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="0" outlineLevel="0">
       <c r="A58" s="23">
-        <v>10001</v>
+        <v>10148</v>
       </c>
       <c r="B58" s="8">
-        <v>10001.00</v>
+        <v>10148</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="0" outlineLevel="0">
       <c r="A59" s="23">
-        <v>10041</v>
+        <v>10094</v>
       </c>
       <c r="B59" s="8">
-        <v>10041.00</v>
+        <v>10094</v>
       </c>
     </row>
     <row r="60" spans="1:2" s="0" outlineLevel="0">
       <c r="A60" s="23">
-        <v>10042</v>
+        <v>10158</v>
       </c>
       <c r="B60" s="8">
-        <v>10042.00</v>
+        <v>10158</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="0" outlineLevel="0">
       <c r="A61" s="23">
-        <v>10043</v>
+        <v>10155</v>
       </c>
       <c r="B61" s="8">
-        <v>10043.00</v>
+        <v>10155</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="0" outlineLevel="0">
       <c r="A62" s="23">
-        <v>10044</v>
+        <v>10001</v>
       </c>
       <c r="B62" s="8">
-        <v>10044.00</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="0" outlineLevel="0">
       <c r="A63" s="23">
-        <v>10045</v>
+        <v>10041</v>
       </c>
       <c r="B63" s="8">
-        <v>10045.00</v>
+        <v>10041</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="0" outlineLevel="0">
       <c r="A64" s="23">
-        <v>10046</v>
+        <v>10042</v>
       </c>
       <c r="B64" s="8">
-        <v>10046.00</v>
+        <v>10042</v>
       </c>
     </row>
     <row r="65" spans="1:2" s="0" outlineLevel="0">
       <c r="A65" s="23">
-        <v>10047</v>
+        <v>10043</v>
       </c>
       <c r="B65" s="8">
-        <v>10047.00</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="66" spans="1:2" s="0" outlineLevel="0">
       <c r="A66" s="23">
-        <v>10048</v>
+        <v>10044</v>
       </c>
       <c r="B66" s="8">
-        <v>10048.00</v>
+        <v>10044</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="0" outlineLevel="0">
       <c r="A67" s="23">
-        <v>10040</v>
+        <v>10045</v>
       </c>
       <c r="B67" s="8">
-        <v>10040.00</v>
+        <v>10045</v>
       </c>
     </row>
     <row r="68" spans="1:2" s="0" outlineLevel="0">
       <c r="A68" s="23">
-        <v>10013</v>
+        <v>10046</v>
       </c>
       <c r="B68" s="8">
-        <v>10013.00</v>
+        <v>10046</v>
       </c>
     </row>
     <row r="69" spans="1:2" s="0" outlineLevel="0">
       <c r="A69" s="23">
-        <v>10014</v>
+        <v>10047</v>
       </c>
       <c r="B69" s="8">
-        <v>10014.00</v>
+        <v>10047</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="0" outlineLevel="0">
       <c r="A70" s="23">
-        <v>10051</v>
+        <v>10048</v>
       </c>
       <c r="B70" s="8">
-        <v>10051.00</v>
+        <v>10048</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="0" outlineLevel="0">
       <c r="A71" s="23">
-        <v>10125</v>
+        <v>10040</v>
       </c>
       <c r="B71" s="8">
-        <v>10125.00</v>
+        <v>10040</v>
       </c>
     </row>
     <row r="72" spans="1:2" s="0" outlineLevel="0">
       <c r="A72" s="23">
-        <v>10113</v>
+        <v>10013</v>
       </c>
       <c r="B72" s="8">
-        <v>10113.00</v>
+        <v>10013</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="0" outlineLevel="0">
       <c r="A73" s="23">
-        <v>10004</v>
+        <v>10014</v>
       </c>
       <c r="B73" s="8">
-        <v>10004.00</v>
+        <v>10014</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="0" outlineLevel="0">
       <c r="A74" s="23">
-        <v>10168</v>
+        <v>10051</v>
       </c>
       <c r="B74" s="8">
-        <v>10168.00</v>
+        <v>10051</v>
       </c>
     </row>
     <row r="75" spans="1:2" s="0" outlineLevel="0">
       <c r="A75" s="23">
-        <v>10169</v>
+        <v>10125</v>
       </c>
       <c r="B75" s="8">
-        <v>10169.00</v>
+        <v>10125</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="0" outlineLevel="0">
       <c r="A76" s="23">
-        <v>10170</v>
+        <v>10178</v>
       </c>
       <c r="B76" s="8">
-        <v>10170.00</v>
+        <v>10178</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="0" outlineLevel="0">
       <c r="A77" s="23">
-        <v>10055</v>
+        <v>10113</v>
       </c>
       <c r="B77" s="8">
-        <v>10055.00</v>
+        <v>10113</v>
       </c>
     </row>
     <row r="78" spans="1:2" s="0" outlineLevel="0">
       <c r="A78" s="23">
-        <v>10093</v>
+        <v>10004</v>
       </c>
       <c r="B78" s="8">
-        <v>10093.00</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="0" outlineLevel="0">
       <c r="A79" s="23">
-        <v>10076</v>
+        <v>10168</v>
       </c>
       <c r="B79" s="8">
-        <v>10076.00</v>
+        <v>10168</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="0" outlineLevel="0">
       <c r="A80" s="23">
-        <v>10112</v>
+        <v>10169</v>
       </c>
       <c r="B80" s="8">
-        <v>10112.00</v>
+        <v>10169</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="0" outlineLevel="0">
       <c r="A81" s="23">
-        <v>10090</v>
+        <v>10170</v>
       </c>
       <c r="B81" s="8">
-        <v>10090.00</v>
+        <v>10170</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="0" outlineLevel="0">
       <c r="A82" s="23">
-        <v>10114</v>
+        <v>10055</v>
       </c>
       <c r="B82" s="8">
-        <v>10114.00</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="0" outlineLevel="0">
       <c r="A83" s="23">
-        <v>10115</v>
+        <v>10093</v>
       </c>
       <c r="B83" s="8">
-        <v>10115.00</v>
+        <v>10093</v>
       </c>
     </row>
     <row r="84" spans="1:2" s="0" outlineLevel="0">
       <c r="A84" s="23">
-        <v>10163</v>
+        <v>10076</v>
       </c>
       <c r="B84" s="8">
-        <v>10163.00</v>
+        <v>10076</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="0" outlineLevel="0">
       <c r="A85" s="23">
-        <v>10164</v>
+        <v>10112</v>
       </c>
       <c r="B85" s="8">
-        <v>10164.00</v>
+        <v>10112</v>
       </c>
     </row>
     <row r="86" spans="1:2" s="0" outlineLevel="0">
       <c r="A86" s="23">
-        <v>10167</v>
+        <v>10090</v>
       </c>
       <c r="B86" s="8">
-        <v>10167.00</v>
+        <v>10090</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="0" outlineLevel="0">
       <c r="A87" s="23">
-        <v>10104</v>
+        <v>10114</v>
       </c>
       <c r="B87" s="8">
-        <v>10104.00</v>
+        <v>10114</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="0" outlineLevel="0">
       <c r="A88" s="23">
-        <v>10108</v>
+        <v>10115</v>
       </c>
       <c r="B88" s="8">
-        <v>10108.00</v>
+        <v>10115</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="0" outlineLevel="0">
       <c r="A89" s="23">
-        <v>10160</v>
+        <v>10163</v>
       </c>
       <c r="B89" s="8">
-        <v>10160.00</v>
+        <v>10163</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="0" outlineLevel="0">
       <c r="A90" s="23">
-        <v>10161</v>
+        <v>10164</v>
       </c>
       <c r="B90" s="8">
-        <v>10161.00</v>
+        <v>10164</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="0" outlineLevel="0">
       <c r="A91" s="23">
-        <v>10050</v>
+        <v>10167</v>
       </c>
       <c r="B91" s="8">
-        <v>10050.00</v>
+        <v>10167</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="0" outlineLevel="0">
       <c r="A92" s="23">
-        <v>10086</v>
+        <v>10104</v>
       </c>
       <c r="B92" s="8">
-        <v>10086.00</v>
+        <v>10104</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="0" outlineLevel="0">
       <c r="A93" s="23">
-        <v>10087</v>
+        <v>10108</v>
       </c>
       <c r="B93" s="8">
-        <v>10087.00</v>
+        <v>10108</v>
       </c>
     </row>
     <row r="94" spans="1:2" s="0" outlineLevel="0">
       <c r="A94" s="23">
-        <v>10088</v>
+        <v>10160</v>
       </c>
       <c r="B94" s="8">
-        <v>10088.00</v>
+        <v>10160</v>
       </c>
     </row>
     <row r="95" spans="1:2" s="0" outlineLevel="0">
       <c r="A95" s="23">
-        <v>10172</v>
+        <v>10161</v>
       </c>
       <c r="B95" s="8">
-        <v>10172.00</v>
+        <v>10161</v>
       </c>
     </row>
     <row r="96" spans="1:2" s="0" outlineLevel="0">
       <c r="A96" s="23">
-        <v>10173</v>
+        <v>10050</v>
       </c>
       <c r="B96" s="8">
-        <v>10173.00</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="97" spans="1:2" s="0" outlineLevel="0">
       <c r="A97" s="23">
-        <v>10127</v>
+        <v>10086</v>
       </c>
       <c r="B97" s="8">
-        <v>10127.00</v>
+        <v>10086</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="0" outlineLevel="0">
       <c r="A98" s="23">
-        <v>10128</v>
+        <v>10087</v>
       </c>
       <c r="B98" s="8">
-        <v>10128.00</v>
+        <v>10087</v>
       </c>
     </row>
     <row r="99" spans="1:2" s="0" outlineLevel="0">
       <c r="A99" s="23">
-        <v>10129</v>
+        <v>10088</v>
       </c>
       <c r="B99" s="8">
-        <v>10129.00</v>
+        <v>10088</v>
       </c>
     </row>
     <row r="100" spans="1:2" s="0" outlineLevel="0">
       <c r="A100" s="23">
-        <v>10116</v>
+        <v>10172</v>
       </c>
       <c r="B100" s="8">
-        <v>10116.00</v>
+        <v>10172</v>
       </c>
     </row>
     <row r="101" spans="1:2" s="0" outlineLevel="0">
       <c r="A101" s="23">
-        <v>10117</v>
+        <v>10173</v>
       </c>
       <c r="B101" s="8">
-        <v>10117.00</v>
+        <v>10173</v>
       </c>
     </row>
     <row r="102" spans="1:2" s="0" outlineLevel="0">
       <c r="A102" s="23">
-        <v>10118</v>
+        <v>10127</v>
       </c>
       <c r="B102" s="8">
-        <v>10118.00</v>
+        <v>10127</v>
       </c>
     </row>
     <row r="103" spans="1:2" s="0" outlineLevel="0">
       <c r="A103" s="23">
-        <v>10119</v>
+        <v>10128</v>
       </c>
       <c r="B103" s="8">
-        <v>10119.00</v>
+        <v>10128</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="0" outlineLevel="0">
       <c r="A104" s="23">
-        <v>10091</v>
+        <v>10129</v>
       </c>
       <c r="B104" s="8">
-        <v>10091.00</v>
+        <v>10129</v>
       </c>
     </row>
     <row r="105" spans="1:2" s="0" outlineLevel="0">
       <c r="A105" s="23">
-        <v>10126</v>
+        <v>10116</v>
       </c>
       <c r="B105" s="8">
-        <v>10126.00</v>
+        <v>10116</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="0" outlineLevel="0">
       <c r="A106" s="23">
-        <v>10111</v>
+        <v>10117</v>
       </c>
       <c r="B106" s="8">
-        <v>10111.00</v>
+        <v>10117</v>
       </c>
     </row>
     <row r="107" spans="1:2" s="0" outlineLevel="0">
       <c r="A107" s="23">
-        <v>10005</v>
+        <v>10118</v>
       </c>
       <c r="B107" s="8">
-        <v>10005.00</v>
+        <v>10118</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="0" outlineLevel="0">
       <c r="A108" s="23">
-        <v>10003</v>
+        <v>10119</v>
       </c>
       <c r="B108" s="8">
-        <v>10003.00</v>
+        <v>10119</v>
       </c>
     </row>
     <row r="109" spans="1:2" s="0" outlineLevel="0">
       <c r="A109" s="23">
-        <v>10095</v>
+        <v>10091</v>
       </c>
       <c r="B109" s="8">
-        <v>10095.00</v>
+        <v>10091</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="0" outlineLevel="0">
       <c r="A110" s="23">
-        <v>10078</v>
+        <v>10126</v>
       </c>
       <c r="B110" s="8">
-        <v>10078.00</v>
+        <v>10126</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="0" outlineLevel="0">
       <c r="A111" s="23">
-        <v>10015</v>
+        <v>10111</v>
       </c>
       <c r="B111" s="8">
-        <v>10015.00</v>
+        <v>10111</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="0" outlineLevel="0">
       <c r="A112" s="23">
-        <v>10159</v>
+        <v>10005</v>
       </c>
       <c r="B112" s="8">
-        <v>10159.00</v>
+        <v>10005</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="0" outlineLevel="0">
       <c r="A113" s="23">
-        <v>10121</v>
+        <v>10003</v>
       </c>
       <c r="B113" s="8">
-        <v>10121.00</v>
+        <v>10003</v>
       </c>
     </row>
     <row r="114" spans="1:2" s="0" outlineLevel="0">
       <c r="A114" s="23">
-        <v>10122</v>
+        <v>10095</v>
       </c>
       <c r="B114" s="8">
-        <v>10122.00</v>
+        <v>10095</v>
       </c>
     </row>
     <row r="115" spans="1:2" s="0" outlineLevel="0">
       <c r="A115" s="23">
-        <v>10105</v>
+        <v>10078</v>
       </c>
       <c r="B115" s="8">
-        <v>10105.00</v>
+        <v>10078</v>
       </c>
     </row>
     <row r="116" spans="1:2" s="0" outlineLevel="0">
       <c r="A116" s="23">
-        <v>10053</v>
+        <v>10015</v>
       </c>
       <c r="B116" s="8">
-        <v>10053.00</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="117" spans="1:2" s="0" outlineLevel="0">
       <c r="A117" s="23">
-        <v>10054</v>
+        <v>10159</v>
       </c>
       <c r="B117" s="8">
-        <v>10054.00</v>
+        <v>10159</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="0" outlineLevel="0">
       <c r="A118" s="23">
-        <v>10019</v>
+        <v>10121</v>
       </c>
       <c r="B118" s="8">
-        <v>10019.00</v>
+        <v>10121</v>
       </c>
     </row>
     <row r="119" spans="1:2" s="0" outlineLevel="0">
       <c r="A119" s="23">
-        <v>10020</v>
+        <v>10122</v>
       </c>
       <c r="B119" s="8">
-        <v>10020.00</v>
+        <v>10122</v>
       </c>
     </row>
     <row r="120" spans="1:2" s="0" outlineLevel="0">
       <c r="A120" s="23">
-        <v>10021</v>
+        <v>10105</v>
       </c>
       <c r="B120" s="8">
-        <v>10021.00</v>
+        <v>10105</v>
       </c>
     </row>
     <row r="121" spans="1:2" s="0" outlineLevel="0">
       <c r="A121" s="23">
-        <v>10023</v>
+        <v>10053</v>
       </c>
       <c r="B121" s="8">
-        <v>10023.00</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="122" spans="1:2" s="0" outlineLevel="0">
       <c r="A122" s="23">
-        <v>10024</v>
+        <v>10054</v>
       </c>
       <c r="B122" s="8">
-        <v>10024.00</v>
+        <v>10054</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="0" outlineLevel="0">
       <c r="A123" s="23">
-        <v>10107</v>
+        <v>10019</v>
       </c>
       <c r="B123" s="8">
-        <v>10107.00</v>
+        <v>10019</v>
       </c>
     </row>
     <row r="124" spans="1:2" s="0" outlineLevel="0">
       <c r="A124" s="23">
+        <v>10020</v>
+      </c>
+      <c r="B124" s="8">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" s="0" outlineLevel="0">
+      <c r="A125" s="23">
+        <v>10021</v>
+      </c>
+      <c r="B125" s="8">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" s="0" outlineLevel="0">
+      <c r="A126" s="23">
+        <v>10023</v>
+      </c>
+      <c r="B126" s="8">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" s="0" outlineLevel="0">
+      <c r="A127" s="23">
+        <v>10024</v>
+      </c>
+      <c r="B127" s="8">
+        <v>10024</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" s="0" outlineLevel="0">
+      <c r="A128" s="23">
+        <v>10107</v>
+      </c>
+      <c r="B128" s="8">
+        <v>10107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" s="0" outlineLevel="0">
+      <c r="A129" s="23">
         <v>10110</v>
       </c>
-      <c r="B124" s="8">
-        <v>10110.00</v>
+      <c r="B129" s="8">
+        <v>10110</v>
       </c>
     </row>
   </sheetData>
